--- a/7_Pathways/Nitrogen_Pathways.xlsx
+++ b/7_Pathways/Nitrogen_Pathways.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Dissimilatory nitrate reduction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>Nitrososphaeria</t>
   </si>
@@ -86,36 +86,6 @@
     <t>Verrucomicrobiae</t>
   </si>
   <si>
-    <t>AmoCAB (Ammonia monooxygenase)</t>
-  </si>
-  <si>
-    <t>Hao (Hydroxylamine oxidoreductase)</t>
-  </si>
-  <si>
-    <t>NxrAB (Nitrite oxidoreductase)</t>
-  </si>
-  <si>
-    <t>NarGHI/NapAB (Nitrate reductase)</t>
-  </si>
-  <si>
-    <t>NirK/NirS (Nitrite reductase)</t>
-  </si>
-  <si>
-    <t>NarB/NR/NasAB (Nitrate reductase)</t>
-  </si>
-  <si>
-    <t>NIT-6/NirA (Nitrite reductase)</t>
-  </si>
-  <si>
-    <t>NirBD/NrfAH (Nitrite reductase)</t>
-  </si>
-  <si>
-    <t>NorBC (Nitric oxide reductase)</t>
-  </si>
-  <si>
-    <t>NosZ (Nitrous oxide reductase)</t>
-  </si>
-  <si>
     <t>PAPSS/Sat/CysND</t>
   </si>
   <si>
@@ -126,6 +96,39 @@
   </si>
   <si>
     <t>CysJJ/Sir</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>NIT-6/NirA</t>
+  </si>
+  <si>
+    <t>NarB/NR/NasAB</t>
+  </si>
+  <si>
+    <t>NarGHI/NapAB</t>
+  </si>
+  <si>
+    <t>NirBD/NrfAH</t>
+  </si>
+  <si>
+    <t>NirK/NirS</t>
+  </si>
+  <si>
+    <t>NorBC</t>
+  </si>
+  <si>
+    <t>NosZ</t>
+  </si>
+  <si>
+    <t>AmoCAB</t>
+  </si>
+  <si>
+    <t>Hao</t>
+  </si>
+  <si>
+    <t>NxrAB</t>
   </si>
 </sst>
 </file>
@@ -162,25 +165,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD6DADC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD6DADC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD6DADC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -202,11 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,15 +513,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -543,7 +535,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -554,7 +546,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -565,7 +557,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -576,7 +568,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1">
@@ -587,7 +579,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1">
@@ -598,7 +590,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1">
@@ -609,7 +601,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1">
@@ -620,7 +612,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1">
@@ -631,7 +623,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -642,7 +634,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12">
@@ -653,7 +645,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -664,7 +656,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -675,7 +667,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1">
@@ -686,7 +678,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1">
@@ -697,7 +689,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
@@ -708,7 +700,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1">
@@ -719,7 +711,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -730,7 +722,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -741,7 +733,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1">
@@ -752,7 +744,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -763,7 +755,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23">
@@ -787,7 +779,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,16 +790,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -818,7 +812,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -829,7 +823,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -840,7 +834,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -851,7 +845,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -862,7 +856,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -873,7 +867,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -884,7 +878,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -895,7 +889,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -906,7 +900,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -917,7 +911,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12">
@@ -928,7 +922,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -939,7 +933,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -950,7 +944,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -961,7 +955,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16">
@@ -972,7 +966,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17">
@@ -983,7 +977,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -994,7 +988,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1005,7 +999,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -1016,7 +1010,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21">
@@ -1027,7 +1021,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1038,7 +1032,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23">
@@ -1058,7 +1052,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,22 +1065,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1103,7 +1099,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -1120,7 +1116,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1137,7 +1133,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -1154,7 +1150,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -1171,7 +1167,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -1188,7 +1184,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -1205,7 +1201,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1222,7 +1218,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1239,7 +1235,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1256,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12">
@@ -1273,7 +1269,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -1290,7 +1286,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1307,7 +1303,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -1324,7 +1320,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16">
@@ -1341,7 +1337,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17">
@@ -1358,7 +1354,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1375,7 +1371,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1392,7 +1388,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -1409,7 +1405,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21">
@@ -1426,7 +1422,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1443,7 +1439,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23">
@@ -1469,7 +1465,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,19 +1477,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1507,7 +1505,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -1521,7 +1519,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1535,7 +1533,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -1549,7 +1547,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -1563,7 +1561,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -1577,7 +1575,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -1591,7 +1589,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1605,7 +1603,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1619,7 +1617,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1633,7 +1631,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12">
@@ -1647,7 +1645,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -1661,7 +1659,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1675,7 +1673,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -1689,7 +1687,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16">
@@ -1703,7 +1701,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17">
@@ -1717,7 +1715,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1731,7 +1729,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1745,7 +1743,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -1759,7 +1757,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21">
@@ -1773,7 +1771,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1787,7 +1785,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23">
@@ -1809,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,21 +1818,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1851,7 +1852,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -1868,7 +1869,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1885,7 +1886,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -1902,7 +1903,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -1919,7 +1920,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -1936,7 +1937,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -1953,7 +1954,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1970,7 +1971,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1987,7 +1988,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -2004,7 +2005,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12">
@@ -2021,7 +2022,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -2038,7 +2039,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -2055,7 +2056,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15">
@@ -2072,7 +2073,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16">
@@ -2089,7 +2090,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17">
@@ -2106,7 +2107,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -2123,7 +2124,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2140,7 +2141,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -2157,7 +2158,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21">
@@ -2174,7 +2175,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2191,7 +2192,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23">
